--- a/xlsx/Prius_intext.xlsx
+++ b/xlsx/Prius_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>Prius</t>
   </si>
@@ -29,19 +29,19 @@
     <t>Toyota</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Prius</t>
+    <t>政策_政策_混合动力车辆_Prius</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E8%BD%AE%E9%A9%B1%E5%8A%A8</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>豐田汽車</t>
+    <t>丰田汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國環境保護署</t>
+    <t>美国环境保护署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/California_Air_Resources_Board</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BA%A4%E9%80%9A%E9%83%A8</t>
   </si>
   <si>
-    <t>英國交通部</t>
+    <t>英国交通部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E7%A2%B3</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8A%9B</t>
   </si>
   <si>
-    <t>馬力</t>
+    <t>马力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B2%A1</t>
   </si>
   <si>
-    <t>高岡</t>
+    <t>高冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%BA</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E7%B8%AE%E6%AF%94</t>
   </si>
   <si>
-    <t>壓縮比</t>
+    <t>压缩比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Watt</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E5%B8%82</t>
   </si>
   <si>
-    <t>豐田市</t>
+    <t>丰田市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E9%80%9F%E5%99%A8</t>
@@ -215,19 +215,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%8A%9B</t>
   </si>
   <si>
-    <t>马力</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%AE%B5%E8%87%AA%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>無段自動變速器</t>
+    <t>无段自动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Corolla</t>
   </si>
   <si>
-    <t>豐田Corolla</t>
+    <t>丰田Corolla</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -257,9 +254,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%80%E8%83%8C%E8%BD%A6</t>
   </si>
   <si>
@@ -275,25 +269,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%B3%E6%B0%AB%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>鎳氫電池</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B6%93%E6%BF%9F%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國經濟部</t>
+    <t>中华民国经济部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E9%83%A8%E8%83%BD%E6%BA%90%E5%B1%80</t>
   </si>
   <si>
-    <t>經濟部能源局</t>
+    <t>经济部能源局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%93%A6%C2%B7%E6%99%82</t>
   </si>
   <si>
-    <t>千瓦·時</t>
+    <t>千瓦·时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%82%E7%A6%BB%E5%AD%90%E7%94%B5%E6%B1%A0</t>
@@ -311,19 +302,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%A8%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>計程車</t>
+    <t>计程车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Camry</t>
   </si>
   <si>
-    <t>豐田Camry</t>
+    <t>丰田Camry</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E9%80%9F%E7%AE%B1</t>
@@ -341,19 +332,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%BB%8A%E6%89%8B</t>
   </si>
   <si>
-    <t>賽車手</t>
+    <t>赛车手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E7%AB%A0%E7%94%B7</t>
   </si>
   <si>
-    <t>豐田章男</t>
+    <t>丰田章男</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%9A%84%E5%A3%AB</t>
@@ -365,19 +356,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E9%9B%BB%E6%B7%B7%E8%83%BD</t>
   </si>
   <si>
-    <t>插電混能</t>
+    <t>插电混能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E7%94%B5%E5%BC%8F%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B%E6%B1%BD%E8%BD%A6</t>
@@ -389,25 +377,25 @@
     <t>https://zh.wikipedia.org/wiki/RJC%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>RJC年度風雲車</t>
+    <t>RJC年度风云车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>歐洲年度風雲車</t>
+    <t>欧洲年度风云车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>北美年度風雲車</t>
+    <t>北美年度风云车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B%E8%BD%A6</t>
@@ -419,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>純電動車</t>
+    <t>纯电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BEV</t>
@@ -431,19 +419,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B1%A0%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>電池電動車</t>
+    <t>电池电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW%E6%9C%AA%E4%BE%86%E6%95%88%E8%83%BD%E5%8B%95%E5%8A%9B%E8%BB%8A</t>
   </si>
   <si>
-    <t>BMW未來效能動力車</t>
+    <t>BMW未来效能动力车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E8%98%AD%E4%BC%8F%E7%89%B9</t>
   </si>
   <si>
-    <t>雪佛蘭伏特</t>
+    <t>雪佛兰伏特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BA%A7%E8%81%86%E9%A3%8E</t>
@@ -1862,7 +1850,7 @@
         <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
@@ -1888,10 +1876,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1917,10 +1905,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -1946,10 +1934,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1975,10 +1963,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2004,10 +1992,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2033,10 +2021,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2062,10 +2050,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2091,10 +2079,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2120,10 +2108,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2149,10 +2137,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2178,10 +2166,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2207,10 +2195,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2236,10 +2224,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2265,10 +2253,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2294,10 +2282,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2323,10 +2311,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2352,10 +2340,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2381,10 +2369,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2410,10 +2398,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" t="s">
         <v>69</v>
-      </c>
-      <c r="F55" t="s">
-        <v>70</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2439,10 +2427,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2468,10 +2456,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2497,10 +2485,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2526,10 +2514,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2555,10 +2543,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2584,10 +2572,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2613,10 +2601,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2642,10 +2630,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -2671,10 +2659,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2700,10 +2688,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2729,10 +2717,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2758,10 +2746,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2787,10 +2775,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2816,10 +2804,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2845,10 +2833,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -2874,10 +2862,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -2903,10 +2891,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2932,10 +2920,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2961,10 +2949,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2990,10 +2978,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3019,10 +3007,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3048,10 +3036,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3077,10 +3065,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3106,10 +3094,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3135,10 +3123,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3164,10 +3152,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>21</v>
@@ -3193,10 +3181,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F82" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
